--- a/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D9A039-D355-4C69-B28C-EB9FEF232702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E60290-8EBA-4C82-8B6C-02C18C18B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67D5F1BA-0A37-42C2-8B0F-383B32A66649}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F225386E-B0F4-4D3A-B20A-E26A1836EC6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="195">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>86,49%</t>
+    <t>83,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,517 +107,529 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,51%</t>
+    <t>16,36%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>0,55%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AB528B-BC48-47A2-BB34-AE42AF0CCBBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C42AF94-9404-445B-988B-D11091761861}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1536,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1545,13 +1557,13 @@
         <v>4587</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1578,13 @@
         <v>700</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1581,13 +1593,13 @@
         <v>649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1596,13 +1608,13 @@
         <v>1349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,7 +1670,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1670,13 +1682,13 @@
         <v>412304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>647</v>
@@ -1685,13 +1697,13 @@
         <v>454191</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>1053</v>
@@ -1700,13 +1712,13 @@
         <v>866495</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1733,13 @@
         <v>73039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>44</v>
@@ -1736,13 +1748,13 @@
         <v>34783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -1751,13 +1763,13 @@
         <v>107821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1784,13 @@
         <v>1337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1787,10 +1799,10 @@
         <v>3668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>90</v>
@@ -1808,7 +1820,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1838,13 +1850,13 @@
         <v>4043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1853,13 +1865,13 @@
         <v>4043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1927,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1927,13 +1939,13 @@
         <v>311285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>444</v>
@@ -1942,13 +1954,13 @@
         <v>321318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>737</v>
@@ -1957,13 +1969,13 @@
         <v>632603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1990,13 @@
         <v>19414</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -1993,13 +2005,13 @@
         <v>24911</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2008,13 +2020,13 @@
         <v>44326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2041,13 @@
         <v>4351</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2044,13 +2056,13 @@
         <v>6534</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2059,13 +2071,13 @@
         <v>10885</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2092,13 @@
         <v>1077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2095,13 +2107,13 @@
         <v>1631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2110,13 +2122,13 @@
         <v>2708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,7 +2184,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2196,13 @@
         <v>395862</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>589</v>
@@ -2199,13 +2211,13 @@
         <v>456900</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>988</v>
@@ -2214,13 +2226,13 @@
         <v>852762</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2247,13 @@
         <v>22305</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -2250,13 +2262,13 @@
         <v>42425</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -2265,13 +2277,13 @@
         <v>64730</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2298,13 @@
         <v>3908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2301,13 +2313,13 @@
         <v>4512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2316,13 +2328,13 @@
         <v>8420</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2349,13 @@
         <v>1746</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2352,13 +2364,13 @@
         <v>7859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -2367,13 +2379,13 @@
         <v>9605</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2453,13 @@
         <v>1373483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>2171</v>
@@ -2456,13 +2468,13 @@
         <v>1538361</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>3548</v>
@@ -2471,13 +2483,13 @@
         <v>2911844</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2504,13 @@
         <v>128701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -2507,13 +2519,13 @@
         <v>113918</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>225</v>
@@ -2522,13 +2534,13 @@
         <v>242620</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2555,13 @@
         <v>12825</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -2558,13 +2570,13 @@
         <v>16073</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -2573,13 +2585,13 @@
         <v>28897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2606,13 @@
         <v>3522</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2609,13 +2621,13 @@
         <v>14182</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -2624,13 +2636,13 @@
         <v>17704</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2698,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E60290-8EBA-4C82-8B6C-02C18C18B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C67284D-81D8-4E87-BBE5-867744D317E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F225386E-B0F4-4D3A-B20A-E26A1836EC6C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{065EA9DD-751C-4117-80EF-DF1F802C3001}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -149,7 +149,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>92,92%</t>
@@ -245,7 +245,7 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,72%</t>
@@ -341,7 +341,7 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>92,61%</t>
@@ -1044,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C42AF94-9404-445B-988B-D11091761861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3FEA0-5A1A-4C93-AC49-860BE6BDA7C3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C67284D-81D8-4E87-BBE5-867744D317E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DF9DED-7804-4248-B973-F82C1703E163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{065EA9DD-751C-4117-80EF-DF1F802C3001}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61913D93-3AF4-4B01-B386-C2EF9516E794}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="195">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>83,64%</t>
+    <t>86,49%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,529 +107,517 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,36%</t>
+    <t>13,51%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1044,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3FEA0-5A1A-4C93-AC49-860BE6BDA7C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C92679-EAEC-46E6-9E1E-9E1BEE0FCD6E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,7 +1536,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1557,13 +1545,13 @@
         <v>4587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1566,13 @@
         <v>700</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1593,13 +1581,13 @@
         <v>649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1608,13 +1596,13 @@
         <v>1349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1658,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1682,13 +1670,13 @@
         <v>412304</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>647</v>
@@ -1697,13 +1685,13 @@
         <v>454191</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>1053</v>
@@ -1712,13 +1700,13 @@
         <v>866495</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1721,13 @@
         <v>73039</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>44</v>
@@ -1748,13 +1736,13 @@
         <v>34783</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -1763,13 +1751,13 @@
         <v>107821</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1772,13 @@
         <v>1337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1799,10 +1787,10 @@
         <v>3668</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>90</v>
@@ -1820,7 +1808,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1850,13 +1838,13 @@
         <v>4043</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1865,13 +1853,13 @@
         <v>4043</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +1915,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1939,13 +1927,13 @@
         <v>311285</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>444</v>
@@ -1954,13 +1942,13 @@
         <v>321318</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>737</v>
@@ -1969,13 +1957,13 @@
         <v>632603</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1978,13 @@
         <v>19414</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -2005,13 +1993,13 @@
         <v>24911</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2020,13 +2008,13 @@
         <v>44326</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2029,13 @@
         <v>4351</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2056,13 +2044,13 @@
         <v>6534</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2071,13 +2059,13 @@
         <v>10885</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2080,13 @@
         <v>1077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2107,13 +2095,13 @@
         <v>1631</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2122,13 +2110,13 @@
         <v>2708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,7 +2172,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2196,13 +2184,13 @@
         <v>395862</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>589</v>
@@ -2211,13 +2199,13 @@
         <v>456900</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>988</v>
@@ -2226,13 +2214,13 @@
         <v>852762</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2235,13 @@
         <v>22305</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -2262,13 +2250,13 @@
         <v>42425</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -2277,13 +2265,13 @@
         <v>64730</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2286,13 @@
         <v>3908</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2313,13 +2301,13 @@
         <v>4512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2328,13 +2316,13 @@
         <v>8420</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2337,13 @@
         <v>1746</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2364,13 +2352,13 @@
         <v>7859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -2379,13 +2367,13 @@
         <v>9605</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2441,13 @@
         <v>1373483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>2171</v>
@@ -2468,13 +2456,13 @@
         <v>1538361</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>3548</v>
@@ -2483,13 +2471,13 @@
         <v>2911844</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2492,13 @@
         <v>128701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -2519,13 +2507,13 @@
         <v>113918</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>225</v>
@@ -2534,13 +2522,13 @@
         <v>242620</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2543,13 @@
         <v>12825</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -2570,13 +2558,13 @@
         <v>16073</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -2585,13 +2573,13 @@
         <v>28897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2594,13 @@
         <v>3522</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2621,13 +2609,13 @@
         <v>14182</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -2636,13 +2624,13 @@
         <v>17704</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2686,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DF9DED-7804-4248-B973-F82C1703E163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D32600-2572-4BAA-8DE3-AAFEE12C5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61913D93-3AF4-4B01-B386-C2EF9516E794}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F0056504-7FC1-40CC-A445-7B0A6FEB73B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="174">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -65,559 +65,496 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>4,5%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,8 +969,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C92679-EAEC-46E6-9E1E-9E1BEE0FCD6E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992FB6A2-9800-41D3-B902-A55CFCEDC741}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1150,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="D4" s="7">
-        <v>50991</v>
+        <v>249412</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1165,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>491</v>
       </c>
       <c r="I4" s="7">
-        <v>47315</v>
+        <v>286030</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1180,10 +1117,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>145</v>
+        <v>770</v>
       </c>
       <c r="N4" s="7">
-        <v>98306</v>
+        <v>535440</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1201,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>2403</v>
+        <v>13380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1216,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>1207</v>
+        <v>11325</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1231,10 +1168,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>3609</v>
+        <v>24705</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1252,100 +1189,100 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>3115</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>693</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,102 +1291,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="I8" s="7">
-        <v>48522</v>
+        <v>299129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="N8" s="7">
-        <v>101915</v>
+        <v>565727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="D9" s="7">
-        <v>203041</v>
+        <v>391512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>404</v>
+        <v>647</v>
       </c>
       <c r="I9" s="7">
-        <v>258637</v>
+        <v>408464</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>625</v>
+        <v>1053</v>
       </c>
       <c r="N9" s="7">
-        <v>461678</v>
+        <v>799977</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,49 +1395,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>11540</v>
+        <v>265678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>10593</v>
+        <v>31071</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>22133</v>
+        <v>296749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,100 +1446,100 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3228</v>
+        <v>1199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>1358</v>
+        <v>3432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>4587</v>
+        <v>4631</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>700</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>649</v>
+        <v>3805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>1349</v>
+        <v>3805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,102 +1548,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>425</v>
+        <v>704</v>
       </c>
       <c r="I13" s="7">
-        <v>271237</v>
+        <v>446772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>659</v>
+        <v>1130</v>
       </c>
       <c r="N13" s="7">
-        <v>489746</v>
+        <v>1105162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="D14" s="7">
-        <v>412304</v>
+        <v>306805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
-        <v>647</v>
+        <v>444</v>
       </c>
       <c r="I14" s="7">
-        <v>454191</v>
+        <v>298155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
-        <v>1053</v>
+        <v>737</v>
       </c>
       <c r="N14" s="7">
-        <v>866495</v>
+        <v>604959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,49 +1652,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
-        <v>73039</v>
+        <v>18894</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I15" s="7">
-        <v>34783</v>
+        <v>22936</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N15" s="7">
-        <v>107821</v>
+        <v>41830</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,100 +1703,100 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1337</v>
+        <v>4135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>3668</v>
+        <v>6228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>5005</v>
+        <v>10363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1004</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>4043</v>
+        <v>1505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>4043</v>
+        <v>2510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,102 +1805,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>704</v>
+        <v>488</v>
       </c>
       <c r="I18" s="7">
-        <v>496684</v>
+        <v>328824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
-        <v>1130</v>
+        <v>802</v>
       </c>
       <c r="N18" s="7">
-        <v>983364</v>
+        <v>659661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="D19" s="7">
-        <v>311285</v>
+        <v>381754</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="I19" s="7">
-        <v>321318</v>
+        <v>468289</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>737</v>
+        <v>988</v>
       </c>
       <c r="N19" s="7">
-        <v>632603</v>
+        <v>850042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,49 +1909,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>19414</v>
+        <v>21139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>24911</v>
+        <v>37839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="N20" s="7">
-        <v>44326</v>
+        <v>58978</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,100 +1960,100 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>4351</v>
+        <v>3376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>6534</v>
+        <v>4003</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>10885</v>
+        <v>7379</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1684</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1077</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>1631</v>
+        <v>7178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>2708</v>
+        <v>8862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,102 +2062,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D23" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
-        <v>488</v>
+        <v>665</v>
       </c>
       <c r="I23" s="7">
-        <v>354395</v>
+        <v>517309</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
-        <v>802</v>
+        <v>1091</v>
       </c>
       <c r="N23" s="7">
-        <v>690522</v>
+        <v>925261</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>399</v>
+        <v>1377</v>
       </c>
       <c r="D24" s="7">
-        <v>395862</v>
+        <v>1329482</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
-        <v>589</v>
+        <v>2171</v>
       </c>
       <c r="I24" s="7">
-        <v>456900</v>
+        <v>1460937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
-        <v>988</v>
+        <v>3548</v>
       </c>
       <c r="N24" s="7">
-        <v>852762</v>
+        <v>2790419</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2166,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D25" s="7">
-        <v>22305</v>
+        <v>319090</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="I25" s="7">
-        <v>42425</v>
+        <v>103172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="N25" s="7">
-        <v>64730</v>
+        <v>422262</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,100 +2217,100 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>3908</v>
+        <v>11825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I26" s="7">
-        <v>4512</v>
+        <v>14859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="N26" s="7">
-        <v>8420</v>
+        <v>26684</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="7">
-        <v>1746</v>
+        <v>3381</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H27" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
-        <v>7859</v>
+        <v>13066</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N27" s="7">
-        <v>9605</v>
+        <v>16447</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,319 +2319,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D28" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
-        <v>665</v>
+        <v>2372</v>
       </c>
       <c r="I28" s="7">
-        <v>511696</v>
+        <v>1592034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M28" s="7">
-        <v>1091</v>
+        <v>3832</v>
       </c>
       <c r="N28" s="7">
-        <v>935517</v>
+        <v>3255812</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1377</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1373483</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2171</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1538361</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3548</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2911844</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>67</v>
-      </c>
-      <c r="D30" s="7">
-        <v>128701</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="7">
-        <v>158</v>
-      </c>
-      <c r="I30" s="7">
-        <v>113918</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="7">
-        <v>225</v>
-      </c>
-      <c r="N30" s="7">
-        <v>242620</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7">
-        <v>12825</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="7">
-        <v>22</v>
-      </c>
-      <c r="I31" s="7">
-        <v>16073</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M31" s="7">
-        <v>34</v>
-      </c>
-      <c r="N31" s="7">
-        <v>28897</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3522</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="7">
-        <v>21</v>
-      </c>
-      <c r="I32" s="7">
-        <v>14182</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M32" s="7">
-        <v>25</v>
-      </c>
-      <c r="N32" s="7">
-        <v>17704</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2372</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1682534</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3832</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3201065</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
